--- a/Exposiciones/SI2019_Exposiciones.xlsx
+++ b/Exposiciones/SI2019_Exposiciones.xlsx
@@ -595,8 +595,8 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,16 +742,30 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="19"/>
+      <c r="G9" s="15">
+        <v>6</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17">
+        <v>10</v>
+      </c>
+      <c r="J9" s="17">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2</v>
+      </c>
+      <c r="L9" s="17">
+        <v>3</v>
+      </c>
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
       <c r="N9" s="19">
         <f>SUM(G9:M9)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -871,16 +885,30 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="19"/>
+      <c r="G16" s="15">
+        <v>8</v>
+      </c>
+      <c r="H16" s="17">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17">
+        <v>10</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+      <c r="K16" s="17">
+        <v>2</v>
+      </c>
+      <c r="L16" s="17">
+        <v>3</v>
+      </c>
+      <c r="M16" s="19">
+        <v>3</v>
+      </c>
       <c r="N16" s="19">
         <f t="shared" ref="N16:N18" si="0">SUM(G16:M16)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -892,16 +920,30 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="19"/>
+      <c r="G17" s="15">
+        <v>8</v>
+      </c>
+      <c r="H17" s="17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17">
+        <v>10</v>
+      </c>
+      <c r="J17" s="17">
+        <v>4</v>
+      </c>
+      <c r="K17" s="17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="19">
+        <v>3</v>
+      </c>
       <c r="N17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
